--- a/PData/MacroNews09_11_2017_11_06_2018.xlsx
+++ b/PData/MacroNews09_11_2017_11_06_2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="200" yWindow="460" windowWidth="28040" windowHeight="16820"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16820"/>
   </bookViews>
   <sheets>
     <sheet name="MacroNews09_11_2017_11_06_2018" sheetId="1" r:id="rId1"/>
@@ -3562,18 +3562,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3885,15 +3874,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2299" workbookViewId="0">
-      <selection activeCell="A296" sqref="A296:A2329"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -52010,9 +51995,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A2329">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>